--- a/Datos/Anuario2024/110401_PoliciaLocal.xlsx
+++ b/Datos/Anuario2024/110401_PoliciaLocal.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="0" sheetId="29" r:id="rId1"/>
+    <sheet name="1" sheetId="30" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="31" r:id="rId3"/>
+    <sheet name="2" sheetId="33" r:id="rId4"/>
+    <sheet name="3" sheetId="85" r:id="rId5"/>
+    <sheet name="4" sheetId="93" r:id="rId6"/>
+    <sheet name="5" sheetId="77" r:id="rId7"/>
+    <sheet name="6" sheetId="34" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -23,70 +29,156 @@
   </externalReferences>
   <definedNames>
     <definedName name="_BLA2">'[1]1.3'!$C$2:$F$22</definedName>
+    <definedName name="_R1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_1" localSheetId="5">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="5">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="5">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
     <definedName name="_R1_6">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="5">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
     <definedName name="_R1_9">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_12">#REF!</definedName>
+    <definedName name="_R2_13" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_13" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_13">#REF!</definedName>
+    <definedName name="_R2_14" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_14" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_14">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_15">#REF!</definedName>
+    <definedName name="_R2_16" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_16" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_16">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_17">#REF!</definedName>
     <definedName name="_R2_18">'[1]2.16'!$B$2:$K$4</definedName>
+    <definedName name="_R2_19" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_19" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_19">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_20" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_20" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_20">#REF!</definedName>
+    <definedName name="_R2_21" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_21" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_21">#REF!</definedName>
     <definedName name="_R2_22">'[1]2.34'!$B$2:$F$4</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_5">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
     <definedName name="_R2_7">'[1]2.26'!$B$2:$L$36</definedName>
+    <definedName name="_R2_8" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_8" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_8">#REF!</definedName>
+    <definedName name="_R2_9" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_9" localSheetId="5">#REF!</definedName>
     <definedName name="_R2_9">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
     <definedName name="_R3_13">'[2]2.3'!$A$1:$K$41</definedName>
+    <definedName name="_R3_14" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
     <definedName name="_R3_15">'[2]2.4'!$A$1:$K$136</definedName>
     <definedName name="_R3_16">'[2]2.7'!$A$1:$M$113</definedName>
+    <definedName name="_R3_17" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_17">#REF!</definedName>
     <definedName name="_R3_18">'[2]2.5'!$A$1:$G$25</definedName>
+    <definedName name="_R3_19" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
     <definedName name="_R3_22">'[2]2.6'!$A$1:$G$25</definedName>
+    <definedName name="_R3_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="5">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="5">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_10">#REF!</definedName>
     <definedName name="_R5_11">'[2]4.15'!$A$1:$B$18</definedName>
     <definedName name="_R5_12">'[2]4.17'!$A$1:$I$8</definedName>
@@ -94,254 +186,455 @@
     <definedName name="_R5_14">'[2]4.16'!$A$1:$N$7</definedName>
     <definedName name="_R5_15">'[2]4.20'!$A$1:$M$6</definedName>
     <definedName name="_R5_16">'[2]4.22'!$A$1:$M$13</definedName>
+    <definedName name="_R5_17" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_17">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_18">#REF!</definedName>
     <definedName name="_R5_19">'[2]4.34'!$A$1:$G$22</definedName>
+    <definedName name="_R5_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
     <definedName name="_R5_20">'[2]4.31'!$A$1:$G$22</definedName>
+    <definedName name="_R5_21" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_21">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_22">#REF!</definedName>
     <definedName name="_R5_23">'[2]4.36'!$A$1:$J$26</definedName>
     <definedName name="_R5_24">'[2]4.33'!$A$1:$J$26</definedName>
     <definedName name="_R5_25">'[2]4.30'!$A$1:$F$10</definedName>
     <definedName name="_R5_26">'[2]4.37'!$A$1:$U$26</definedName>
+    <definedName name="_R5_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="5">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3">'[1]5.2'!$B$2:$G$4</definedName>
     <definedName name="_R6_4">'[1]5.4'!$B$2:$N$8</definedName>
+    <definedName name="_R6_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="5">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="5">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="5">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="5">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="a">'[3]1.1'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$24</definedName>
+    <definedName name="b" localSheetId="4">#REF!</definedName>
+    <definedName name="b" localSheetId="5">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
+    <definedName name="BLA" localSheetId="4">#REF!</definedName>
+    <definedName name="BLA" localSheetId="5">#REF!</definedName>
     <definedName name="BLA">#REF!</definedName>
     <definedName name="gd">'[3]2.21'!$A$1:$G$50</definedName>
+    <definedName name="m" localSheetId="4">#REF!</definedName>
+    <definedName name="m" localSheetId="5">#REF!</definedName>
     <definedName name="m">#REF!</definedName>
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$24</definedName>
-    <definedName name="_R1_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_13" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_14" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_15" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_16" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_19" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_20" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_21" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_9" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="4">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="4">#REF!</definedName>
-    <definedName name="b" localSheetId="4">#REF!</definedName>
-    <definedName name="BLA" localSheetId="4">#REF!</definedName>
-    <definedName name="m" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_13" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_14" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_15" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_16" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_19" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_20" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_21" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="5">#REF!</definedName>
-    <definedName name="b" localSheetId="5">#REF!</definedName>
-    <definedName name="BLA" localSheetId="5">#REF!</definedName>
-    <definedName name="m" localSheetId="5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Oficial</t>
+  </si>
+  <si>
+    <t>Seguridad Ciudadana</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Incendios</t>
+  </si>
+  <si>
+    <t>Sin arrastre</t>
+  </si>
+  <si>
+    <t>Con arrastre</t>
+  </si>
+  <si>
+    <t>Vehículos abandonados</t>
+  </si>
+  <si>
+    <t>Agente</t>
+  </si>
+  <si>
+    <t>Identificaciones practicadas</t>
+  </si>
+  <si>
+    <t>Servicios realizados</t>
+  </si>
+  <si>
+    <t>Servicios Tráfico</t>
+  </si>
+  <si>
+    <t>Retirada de vehículos</t>
+  </si>
+  <si>
+    <t>Protección de animales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>Alteraciones de la seguridad ciudadana</t>
+  </si>
+  <si>
+    <t>Delitos contra las personas</t>
+  </si>
+  <si>
+    <t>Delitos contra la libertad sexual</t>
+  </si>
+  <si>
+    <t>Delitos contra la seguridad del tránsito</t>
+  </si>
+  <si>
+    <t>Delitos contra la propiedad</t>
+  </si>
+  <si>
+    <t>Delitos contra la salud pública</t>
+  </si>
+  <si>
+    <t>Abandono de familia</t>
+  </si>
+  <si>
+    <t>Reclamaciones judiciales</t>
+  </si>
+  <si>
+    <t>Seguridad preventiva</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Policía Administrativa</t>
+  </si>
+  <si>
+    <t>Fuente: Policía Local. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Servicios Humanitarios / Riesgos</t>
+  </si>
+  <si>
+    <t>Servicios humanitarios</t>
+  </si>
+  <si>
+    <t>Por fallecimiento</t>
+  </si>
+  <si>
+    <t>Muerte accidental</t>
+  </si>
+  <si>
+    <t>Muerte natural</t>
+  </si>
+  <si>
+    <t>Muerte sospechosa</t>
+  </si>
+  <si>
+    <t>Suicidio</t>
+  </si>
+  <si>
+    <t>Muerte consumo alcohol / drogas</t>
+  </si>
+  <si>
+    <t>Sin tipificar</t>
+  </si>
+  <si>
+    <t>Daños fortuitos</t>
+  </si>
+  <si>
+    <t>Servicios riesgos</t>
+  </si>
+  <si>
+    <t>Humanitarios / Riesgos</t>
+  </si>
+  <si>
+    <t>Actos vía pública</t>
+  </si>
+  <si>
+    <t>Incidencias</t>
+  </si>
+  <si>
+    <t>Muerte por accidente laboral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delitos contra la libertad </t>
+  </si>
+  <si>
+    <t>Comisario</t>
+  </si>
+  <si>
+    <t>Comisario Principal</t>
+  </si>
+  <si>
+    <t>Comisario Principal Jefe</t>
+  </si>
+  <si>
+    <t>Intendente</t>
+  </si>
+  <si>
+    <t>Inspector</t>
+  </si>
+  <si>
+    <t>Colaboraciones con otros estamentos</t>
+  </si>
+  <si>
+    <t>Seguridad ciudadana</t>
+  </si>
+  <si>
+    <t>Accidentes</t>
+  </si>
+  <si>
+    <t>Actos en Vía Pública</t>
+  </si>
+  <si>
+    <t>Vigilancias</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>Detenciones realizadas</t>
+  </si>
+  <si>
+    <t>Custodia</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Por caída casual</t>
+  </si>
+  <si>
+    <t>Por consumo de alcohol</t>
+  </si>
+  <si>
+    <t>Por consumo de drogas</t>
+  </si>
+  <si>
+    <t>Por enfermedad</t>
+  </si>
+  <si>
+    <t>Intento de suicidio</t>
+  </si>
+  <si>
+    <t>Indigentes</t>
+  </si>
+  <si>
+    <t>Extraviados</t>
+  </si>
+  <si>
+    <t>Accidente laboral</t>
+  </si>
+  <si>
+    <t>Escapes agua, gas, electricidad</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD DE LA POLICÍA LOCAL</t>
+  </si>
+  <si>
+    <t>1. Servicios según tipo. 2023</t>
+  </si>
+  <si>
+    <t>2. Seguridad ciudadana. Servicios, identificaciones y detenciones. 2023</t>
+  </si>
+  <si>
+    <t>3. Servicios humanitarios / riesgos. 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4. Servicios de tráfico, retirada de vehículos y accidentes. 2023</t>
+  </si>
+  <si>
+    <t>6. Plantilla del Cuerpo. 2023</t>
+  </si>
+  <si>
+    <t>Agente interino</t>
+  </si>
+  <si>
+    <t>5. Servicios según tipo por distrito. 2023</t>
+  </si>
+  <si>
+    <t>Humanitario con activación X-4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -370,107 +663,108 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Normal 10" xfId="11"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Porcentaje 2" xfId="7"/>
     <cellStyle name="style1595592910070" xfId="8"/>
+    <cellStyle name="style1595592910101" xfId="10"/>
     <cellStyle name="style1595592910148" xfId="9"/>
-    <cellStyle name="style1595592910101" xfId="10"/>
-    <cellStyle name="Normal 10" xfId="11"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -539,13 +833,86 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4834890</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="196215" y="241936"/>
+          <a:ext cx="5010150" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2203,8 +2570,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13892,7 +14259,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17687,8 +18054,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19870,8 +20237,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20867,1889 +21234,1602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja27">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="25" min="1" max="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD DE LA POLICÍA LOCAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja28">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="28.7109375" customWidth="1" style="25" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="25" min="2" max="2"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>1. Servicios según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="25">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="25">
-      <c r="A4" s="38" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
         <v>329885</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="25">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Seguridad ciudadana</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="15">
         <v>58640</v>
       </c>
-      <c r="C5" s="26" t="n"/>
+      <c r="C5" s="26"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="25">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Servicios Humanitarios / Riesgos</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16">
         <v>41210</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="25">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Servicios Tráfico</t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15">
         <v>72781</v>
       </c>
-      <c r="C7" s="26" t="n"/>
+      <c r="C7" s="26"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="25">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Policía Administrativa</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="16">
         <v>49423</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="25">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Actos en Vía Pública</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="27">
         <v>2605</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="25">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Vigilancias</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="16">
         <v>44791</v>
       </c>
-      <c r="C10" s="26" t="n"/>
+      <c r="C10" s="26"/>
     </row>
-    <row r="11" ht="15" customHeight="1" s="25">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Incidencias</t>
-        </is>
-      </c>
-      <c r="B11" s="27" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15">
         <v>14372</v>
       </c>
-      <c r="C11" s="26" t="n"/>
+      <c r="C11" s="26"/>
     </row>
-    <row r="12" ht="15" customHeight="1" s="25">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Información</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="16">
         <v>46063</v>
       </c>
-      <c r="C12" s="26" t="n"/>
+      <c r="C12" s="26"/>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València.</t>
-        </is>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="23" t="n"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja29">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="E6:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="23" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="23" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="23" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" style="23" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="23" min="5" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="6">
-      <c r="E6" s="24" t="n"/>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="24"/>
     </row>
-    <row r="7">
-      <c r="E7" s="24" t="n"/>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="24"/>
     </row>
-    <row r="8">
-      <c r="E8" s="24" t="n"/>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="24"/>
     </row>
-    <row r="9">
-      <c r="E9" s="24" t="n"/>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="24"/>
     </row>
-    <row r="10">
-      <c r="E10" s="24" t="n"/>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="24"/>
     </row>
-    <row r="11">
-      <c r="E11" s="24" t="n"/>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja31">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="25" min="1" max="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>2. Seguridad ciudadana. Servicios, identificaciones y detenciones. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="25">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="25">
-      <c r="A4" s="38" t="inlineStr">
-        <is>
-          <t>Servicios realizados</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="n">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="32">
         <v>58640</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="25">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Alteraciones de la seguridad ciudadana</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15">
         <v>667</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="25">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Delitos contra las personas</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16">
         <v>7168</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="25">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delitos contra la libertad </t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="15">
         <v>2635</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="25">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Delitos contra la libertad sexual</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="16">
         <v>249</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="25">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Delitos contra la seguridad del tránsito</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="15">
         <v>2530</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="25">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Delitos contra la propiedad</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16">
         <v>9224</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="25">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Delitos contra la salud pública</t>
-        </is>
-      </c>
-      <c r="B11" s="27" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15">
         <v>259</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="25">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Abandono de familia</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="25">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>Reclamaciones judiciales</t>
-        </is>
-      </c>
-      <c r="B13" s="27" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="15">
         <v>631</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="25">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>Protección de animales</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
         <v>430</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="25">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>Seguridad preventiva</t>
-        </is>
-      </c>
-      <c r="B15" s="27" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="15">
         <v>31420</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="25">
-      <c r="A16" s="9" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="B16" s="16" t="n">
+    <row r="16" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="16">
         <v>3377</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="25">
-      <c r="A17" s="36" t="inlineStr">
-        <is>
-          <t>Identificaciones practicadas</t>
-        </is>
-      </c>
-      <c r="B17" s="37" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="37">
         <v>136285</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="25">
-      <c r="A18" s="38" t="inlineStr">
-        <is>
-          <t>Detenciones realizadas</t>
-        </is>
-      </c>
-      <c r="B18" s="32" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="32">
         <v>3098</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València.</t>
-        </is>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="25" min="1" max="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>3. Servicios humanitarios / riesgos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="16" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="25">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="25">
-      <c r="A4" s="38" t="inlineStr">
-        <is>
-          <t>Servicios realizados</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="32">
         <v>41210</v>
       </c>
-      <c r="C4" s="26" t="n"/>
+      <c r="C4" s="26"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="25">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Servicios humanitarios</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="15">
         <v>32537</v>
       </c>
-      <c r="C5" s="26" t="n"/>
+      <c r="C5" s="26"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="25">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>Por fallecimiento</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="16">
         <v>215</v>
       </c>
-      <c r="C6" s="26" t="n"/>
+      <c r="C6" s="26"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="25">
-      <c r="A7" s="29" t="inlineStr">
-        <is>
-          <t>Muerte natural</t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="15">
         <v>106</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="25">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>Muerte accidental</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="16">
         <v>9</v>
       </c>
-      <c r="C8" s="26" t="n"/>
+      <c r="C8" s="26"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="25">
-      <c r="A9" s="29" t="inlineStr">
-        <is>
-          <t>Muerte sospechosa</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="15">
         <v>73</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="25">
-      <c r="A10" s="28" t="inlineStr">
-        <is>
-          <t>Suicidio</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="25">
-      <c r="A11" s="29" t="inlineStr">
-        <is>
-          <t>Muerte consumo alcohol / drogas</t>
-        </is>
-      </c>
-      <c r="B11" s="27" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="25">
-      <c r="A12" s="28" t="inlineStr">
-        <is>
-          <t>Muerte por accidente laboral</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="25">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t>Intento de suicidio</t>
-        </is>
-      </c>
-      <c r="B13" s="27" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="15">
         <v>1577</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="25">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>Por enfermedad</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="16">
         <v>14862</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="25">
-      <c r="A15" s="20" t="inlineStr">
-        <is>
-          <t>Por consumo de drogas</t>
-        </is>
-      </c>
-      <c r="B15" s="27" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="15">
         <v>606</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="25">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>Por consumo de alcohol</t>
-        </is>
-      </c>
-      <c r="B16" s="16" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="16">
         <v>3397</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="25">
-      <c r="A17" s="20" t="inlineStr">
-        <is>
-          <t>Por caída casual</t>
-        </is>
-      </c>
-      <c r="B17" s="27" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="15">
         <v>6136</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="25">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>Indigentes</t>
-        </is>
-      </c>
-      <c r="B18" s="16" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="16">
         <v>1375</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="25">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t>Extraviados</t>
-        </is>
-      </c>
-      <c r="B19" s="27" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="15">
         <v>1016</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="25">
-      <c r="A20" s="19" t="inlineStr">
-        <is>
-          <t>Accidente laboral</t>
-        </is>
-      </c>
-      <c r="B20" s="16" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="16">
         <v>117</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="25">
-      <c r="A21" s="20" t="inlineStr">
-        <is>
-          <t>Humanitario con activación X-4</t>
-        </is>
-      </c>
-      <c r="B21" s="27" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="15">
         <v>3236</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="25">
-      <c r="A22" s="19" t="inlineStr">
-        <is>
-          <t>Sin tipificar</t>
-        </is>
-      </c>
-      <c r="B22" s="16" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="25">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>Servicios riesgos</t>
-        </is>
-      </c>
-      <c r="B23" s="27" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="15">
         <v>8673</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="25">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
-      </c>
-      <c r="B24" s="16" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="16">
         <v>2574</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="25">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t>Daños fortuitos</t>
-        </is>
-      </c>
-      <c r="B25" s="27" t="n">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="15">
         <v>3228</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="25">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>Escapes agua, gas, electricidad</t>
-        </is>
-      </c>
-      <c r="B26" s="16" t="n">
+    <row r="26" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="16">
         <v>1872</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="25">
-      <c r="A27" s="20" t="inlineStr">
-        <is>
-          <t>Sin tipificar</t>
-        </is>
-      </c>
-      <c r="B27" s="27" t="n">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="15">
         <v>999</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="25">
-      <c r="A28" s="21" t="inlineStr">
-        <is>
-          <t>Colaboraciones con otros estamentos</t>
-        </is>
-      </c>
-      <c r="B28" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+    <row r="28" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València.</t>
-        </is>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="25.7109375" customWidth="1" style="25" min="1" max="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>4. Servicios de tráfico, retirada de vehículos y accidentes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="16" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="25">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="25">
-      <c r="A4" s="38" t="inlineStr">
-        <is>
-          <t>Servicios realizados</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="32">
         <v>72781</v>
       </c>
-      <c r="C4" s="26" t="n"/>
+      <c r="C4" s="26"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="25">
-      <c r="A5" s="33" t="inlineStr">
-        <is>
-          <t>Retirada de vehículos</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15">
         <v>22225</v>
       </c>
-      <c r="C5" s="26" t="n"/>
+      <c r="C5" s="26"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="25">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Sin arrastre</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
         <v>693</v>
       </c>
-      <c r="C6" s="26" t="n"/>
+      <c r="C6" s="26"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="25">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Con arrastre</t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
         <v>16215</v>
       </c>
-      <c r="C7" s="26" t="n"/>
+      <c r="C7" s="26"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="25">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Vehículos abandonados</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
         <v>714</v>
       </c>
-      <c r="C8" s="26" t="n"/>
+      <c r="C8" s="26"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="25">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Custodia</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="15">
         <v>4603</v>
       </c>
-      <c r="C9" s="26" t="n"/>
+      <c r="C9" s="26"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="25">
-      <c r="A10" s="21" t="inlineStr">
-        <is>
-          <t>Accidentes</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="16">
         <v>8546</v>
       </c>
-      <c r="C10" s="26" t="n"/>
+      <c r="C10" s="26"/>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València.</t>
-        </is>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.7109375" customWidth="1" style="25" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="25" min="2" max="5"/>
-    <col width="14" customWidth="1" style="25" min="6" max="6"/>
-    <col width="12.7109375" customWidth="1" style="25" min="7" max="10"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>5. Servicios según tipo por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="n"/>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4"/>
     </row>
-    <row r="3" ht="29.25" customHeight="1" s="25">
-      <c r="A3" s="31" t="n"/>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>Seguridad Ciudadana</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>Humanitarios / Riesgos</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>Servicios Tráfico</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>Policía Administrativa</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
-        <is>
-          <t>Actos vía pública</t>
-        </is>
-      </c>
-      <c r="H3" s="14" t="inlineStr">
-        <is>
-          <t>Vigilancias</t>
-        </is>
-      </c>
-      <c r="I3" s="14" t="inlineStr">
-        <is>
-          <t>Incidencias</t>
-        </is>
-      </c>
-      <c r="J3" s="14" t="inlineStr">
-        <is>
-          <t>Información</t>
-        </is>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="25">
-      <c r="A4" s="38" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="n">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="32">
         <v>329885</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="32">
         <v>58640</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="32">
         <v>41210</v>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="32">
         <v>72781</v>
       </c>
-      <c r="F4" s="32" t="n">
+      <c r="F4" s="32">
         <v>49423</v>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="32">
         <v>2605</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <v>44791</v>
       </c>
-      <c r="I4" s="32" t="n">
+      <c r="I4" s="32">
         <v>14372</v>
       </c>
-      <c r="J4" s="32" t="n">
+      <c r="J4" s="32">
         <v>46063</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="25">
-      <c r="A5" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="n">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
         <v>27348</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="15">
         <v>5250</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="15">
         <v>4857</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="15">
         <v>5681</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="15">
         <v>5610</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="15">
         <v>614</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="15">
         <v>3457</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="15">
         <v>617</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="15">
         <v>1262</v>
       </c>
-      <c r="K5" s="26" t="n"/>
+      <c r="K5" s="26"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="25">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16">
         <v>20374</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="16">
         <v>3557</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="16">
         <v>2827</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="16">
         <v>6018</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="16">
         <v>3638</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="16">
         <v>91</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="16">
         <v>2547</v>
       </c>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="16">
         <v>472</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="16">
         <v>1224</v>
       </c>
-      <c r="K6" s="26" t="n"/>
+      <c r="K6" s="26"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="25">
-      <c r="A7" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="n">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15">
         <v>18586</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="15">
         <v>3816</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="15">
         <v>3488</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="15">
         <v>5070</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="15">
         <v>2659</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="15">
         <v>79</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="15">
         <v>1963</v>
       </c>
-      <c r="I7" s="27" t="n">
+      <c r="I7" s="15">
         <v>354</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="J7" s="15">
         <v>1157</v>
       </c>
-      <c r="K7" s="26" t="n"/>
+      <c r="K7" s="26"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="25">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
         <v>12532</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="16">
         <v>2632</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="16">
         <v>2039</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="16">
         <v>3513</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="16">
         <v>1650</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="16">
         <v>62</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="16">
         <v>1626</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="16">
         <v>304</v>
       </c>
-      <c r="J8" s="16" t="n">
+      <c r="J8" s="16">
         <v>706</v>
       </c>
-      <c r="K8" s="26" t="n"/>
+      <c r="K8" s="26"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="25">
-      <c r="A9" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15">
         <v>17549</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="15">
         <v>3393</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="15">
         <v>2290</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="15">
         <v>4613</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="15">
         <v>3183</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="15">
         <v>38</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="15">
         <v>2969</v>
       </c>
-      <c r="I9" s="27" t="n">
+      <c r="I9" s="15">
         <v>273</v>
       </c>
-      <c r="J9" s="27" t="n">
+      <c r="J9" s="15">
         <v>790</v>
       </c>
-      <c r="K9" s="26" t="n"/>
+      <c r="K9" s="26"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="25">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16">
         <v>11520</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="16">
         <v>1841</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16">
         <v>1555</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="16">
         <v>4082</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="16">
         <v>1716</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="16">
         <v>198</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="16">
         <v>1150</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="16">
         <v>227</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="16">
         <v>751</v>
       </c>
-      <c r="K10" s="26" t="n"/>
+      <c r="K10" s="26"/>
     </row>
-    <row r="11" ht="15" customHeight="1" s="25">
-      <c r="A11" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="27" t="n">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="15">
         <v>17869</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="15">
         <v>3565</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="15">
         <v>2500</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="15">
         <v>4161</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="15">
         <v>2386</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="G11" s="15">
         <v>81</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="15">
         <v>3126</v>
       </c>
-      <c r="I11" s="27" t="n">
+      <c r="I11" s="15">
         <v>559</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="15">
         <v>1491</v>
       </c>
-      <c r="K11" s="26" t="n"/>
+      <c r="K11" s="26"/>
     </row>
-    <row r="12" ht="15" customHeight="1" s="25">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16">
         <v>16743</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="16">
         <v>2849</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="16">
         <v>2637</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="16">
         <v>4343</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="16">
         <v>2346</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="16">
         <v>107</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="16">
         <v>2042</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="16">
         <v>710</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="16">
         <v>1709</v>
       </c>
-      <c r="K12" s="26" t="n"/>
+      <c r="K12" s="26"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="25">
-      <c r="A13" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="27" t="n">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="15">
         <v>14326</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="15">
         <v>3296</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="15">
         <v>2246</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="15">
         <v>3028</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="15">
         <v>2143</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="15">
         <v>49</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="15">
         <v>2591</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="15">
         <v>248</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="15">
         <v>725</v>
       </c>
-      <c r="K13" s="26" t="n"/>
+      <c r="K13" s="26"/>
     </row>
-    <row r="14" ht="15" customHeight="1" s="25">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16">
         <v>28241</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="16">
         <v>4818</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="16">
         <v>3647</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="16">
         <v>7765</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="16">
         <v>4619</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="16">
         <v>417</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="16">
         <v>5085</v>
       </c>
-      <c r="I14" s="16" t="n">
+      <c r="I14" s="16">
         <v>488</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="16">
         <v>1402</v>
       </c>
-      <c r="K14" s="26" t="n"/>
+      <c r="K14" s="26"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="25">
-      <c r="A15" s="33" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="27" t="n">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="15">
         <v>23568</v>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C15" s="15">
         <v>7200</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="15">
         <v>3041</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="15">
         <v>4776</v>
       </c>
-      <c r="F15" s="27" t="n">
+      <c r="F15" s="15">
         <v>4160</v>
       </c>
-      <c r="G15" s="27" t="n">
+      <c r="G15" s="15">
         <v>220</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="15">
         <v>2214</v>
       </c>
-      <c r="I15" s="27" t="n">
+      <c r="I15" s="15">
         <v>644</v>
       </c>
-      <c r="J15" s="27" t="n">
+      <c r="J15" s="15">
         <v>1313</v>
       </c>
-      <c r="K15" s="26" t="n"/>
+      <c r="K15" s="26"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="25">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="16" t="n">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16">
         <v>11906</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="16">
         <v>2701</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="16">
         <v>2082</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="16">
         <v>2736</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="16">
         <v>1903</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="16">
         <v>52</v>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="16">
         <v>1181</v>
       </c>
-      <c r="I16" s="16" t="n">
+      <c r="I16" s="16">
         <v>280</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="16">
         <v>971</v>
       </c>
-      <c r="K16" s="26" t="n"/>
+      <c r="K16" s="26"/>
     </row>
-    <row r="17" ht="15" customHeight="1" s="25">
-      <c r="A17" s="33" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="27" t="n">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="15">
         <v>10909</v>
       </c>
-      <c r="C17" s="27" t="n">
+      <c r="C17" s="15">
         <v>3032</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="15">
         <v>1435</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="15">
         <v>2581</v>
       </c>
-      <c r="F17" s="27" t="n">
+      <c r="F17" s="15">
         <v>2118</v>
       </c>
-      <c r="G17" s="27" t="n">
+      <c r="G17" s="15">
         <v>11</v>
       </c>
-      <c r="H17" s="27" t="n">
+      <c r="H17" s="15">
         <v>851</v>
       </c>
-      <c r="I17" s="27" t="n">
+      <c r="I17" s="15">
         <v>261</v>
       </c>
-      <c r="J17" s="27" t="n">
+      <c r="J17" s="15">
         <v>620</v>
       </c>
-      <c r="K17" s="26" t="n"/>
+      <c r="K17" s="26"/>
     </row>
-    <row r="18" ht="15" customHeight="1" s="25">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="16" t="n">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16">
         <v>9108</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="16">
         <v>1368</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="16">
         <v>1076</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="16">
         <v>2642</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="16">
         <v>1704</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="16">
         <v>48</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="16">
         <v>1696</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="16">
         <v>157</v>
       </c>
-      <c r="J18" s="16" t="n">
+      <c r="J18" s="16">
         <v>417</v>
       </c>
-      <c r="K18" s="26" t="n"/>
+      <c r="K18" s="26"/>
     </row>
-    <row r="19" ht="15" customHeight="1" s="25">
-      <c r="A19" s="33" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="27" t="n">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15">
         <v>20091</v>
       </c>
-      <c r="C19" s="27" t="n">
+      <c r="C19" s="15">
         <v>3715</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="15">
         <v>2051</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="15">
         <v>4217</v>
       </c>
-      <c r="F19" s="27" t="n">
+      <c r="F19" s="15">
         <v>3696</v>
       </c>
-      <c r="G19" s="27" t="n">
+      <c r="G19" s="15">
         <v>220</v>
       </c>
-      <c r="H19" s="27" t="n">
+      <c r="H19" s="15">
         <v>4989</v>
       </c>
-      <c r="I19" s="27" t="n">
+      <c r="I19" s="15">
         <v>372</v>
       </c>
-      <c r="J19" s="27" t="n">
+      <c r="J19" s="15">
         <v>831</v>
       </c>
-      <c r="K19" s="26" t="n"/>
+      <c r="K19" s="26"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="25">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="16" t="n">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16">
         <v>14689</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="16">
         <v>2571</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="16">
         <v>1716</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="16">
         <v>3970</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="16">
         <v>3220</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="16">
         <v>39</v>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H20" s="16">
         <v>2345</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="16">
         <v>265</v>
       </c>
-      <c r="J20" s="16" t="n">
+      <c r="J20" s="16">
         <v>563</v>
       </c>
-      <c r="K20" s="26" t="n"/>
+      <c r="K20" s="26"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="25">
-      <c r="A21" s="33" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="27" t="n">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="15">
         <v>2481</v>
       </c>
-      <c r="C21" s="27" t="n">
+      <c r="C21" s="15">
         <v>275</v>
       </c>
-      <c r="D21" s="27" t="n">
+      <c r="D21" s="15">
         <v>230</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="15">
         <v>723</v>
       </c>
-      <c r="F21" s="27" t="n">
+      <c r="F21" s="15">
         <v>487</v>
       </c>
-      <c r="G21" s="27" t="n">
+      <c r="G21" s="15">
         <v>103</v>
       </c>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="15">
         <v>546</v>
       </c>
-      <c r="I21" s="27" t="n">
+      <c r="I21" s="15">
         <v>32</v>
       </c>
-      <c r="J21" s="27" t="n">
+      <c r="J21" s="15">
         <v>85</v>
       </c>
-      <c r="K21" s="26" t="n"/>
+      <c r="K21" s="26"/>
     </row>
-    <row r="22" ht="15" customHeight="1" s="25">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="16" t="n">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="16">
         <v>4817</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="16">
         <v>994</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="16">
         <v>458</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="16">
         <v>1171</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="16">
         <v>662</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="16">
         <v>69</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="16">
         <v>1223</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="16">
         <v>47</v>
       </c>
-      <c r="J22" s="16" t="n">
+      <c r="J22" s="16">
         <v>193</v>
       </c>
-      <c r="K22" s="26" t="n"/>
+      <c r="K22" s="26"/>
     </row>
-    <row r="23" ht="15" customHeight="1" s="25">
-      <c r="A23" s="33" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="27" t="n">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="15">
         <v>9771</v>
       </c>
-      <c r="C23" s="27" t="n">
+      <c r="C23" s="15">
         <v>1754</v>
       </c>
-      <c r="D23" s="27" t="n">
+      <c r="D23" s="15">
         <v>1024</v>
       </c>
-      <c r="E23" s="27" t="n">
+      <c r="E23" s="15">
         <v>1684</v>
       </c>
-      <c r="F23" s="27" t="n">
+      <c r="F23" s="15">
         <v>1516</v>
       </c>
-      <c r="G23" s="27" t="n">
+      <c r="G23" s="15">
         <v>107</v>
       </c>
-      <c r="H23" s="27" t="n">
+      <c r="H23" s="15">
         <v>3186</v>
       </c>
-      <c r="I23" s="27" t="n">
+      <c r="I23" s="15">
         <v>113</v>
       </c>
-      <c r="J23" s="27" t="n">
+      <c r="J23" s="15">
         <v>387</v>
       </c>
-      <c r="K23" s="26" t="n"/>
+      <c r="K23" s="26"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="25">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B24" s="16" t="n">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="16">
         <v>37457</v>
       </c>
-      <c r="C24" s="16" t="n">
+      <c r="C24" s="16">
         <v>13</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="16">
         <v>11</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="16">
         <v>7</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="16">
         <v>7</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="18">
         <v>0</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="16">
         <v>4</v>
       </c>
-      <c r="I24" s="16" t="n">
+      <c r="I24" s="16">
         <v>7949</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="J24" s="16">
         <v>29466</v>
       </c>
-      <c r="K24" s="26" t="n"/>
+      <c r="K24" s="26"/>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València.</t>
-        </is>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="26" t="n"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja32">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="25.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>6. Plantilla del Cuerpo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="n"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="25">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="25">
-      <c r="A4" s="38" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="34" t="n">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="34">
         <v>1491</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="25">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Comisario Principal Jefe</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="25">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Comisario Principal</t>
-        </is>
-      </c>
-      <c r="B6" s="18" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="25">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Comisario</t>
-        </is>
-      </c>
-      <c r="B7" s="17" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="25">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Intendente</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="25">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Inspector</t>
-        </is>
-      </c>
-      <c r="B9" s="17" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="17">
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="25">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Oficial</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
         <v>175</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="25">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Agente</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17">
         <v>1225</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="25">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Agente interino</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València.</t>
-        </is>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>